--- a/topic02/book-b/archives/major_league_baseball.xlsx
+++ b/topic02/book-b/archives/major_league_baseball.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Analytics\analytics-2017\topic02\book-b\archives\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="10305" yWindow="4380" windowWidth="19440" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Baseball 2010" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Baseball 2010" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Won</t>
   </si>
@@ -161,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -247,6 +253,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -294,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +336,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,10 +669,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-0.232331475439081</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -638,8 +725,7 @@
     <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
